--- a/Work Breakdown Structure.xlsx
+++ b/Work Breakdown Structure.xlsx
@@ -108,10 +108,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -120,7 +121,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2960,12 +2960,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2076450" cy="962025"/>
+    <xdr:ext cx="2105025" cy="962025"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="86" name="TextBox 85"/>
@@ -2973,8 +2973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7534275" y="7791449"/>
-          <a:ext cx="2076450" cy="962025"/>
+          <a:off x="7534274" y="7791449"/>
+          <a:ext cx="2105025" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3978,7 +3978,7 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2047875" cy="390525"/>
+    <xdr:ext cx="2066925" cy="390525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="100" name="TextBox 99"/>
@@ -3987,7 +3987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4791075" y="11029950"/>
-          <a:ext cx="2047875" cy="390525"/>
+          <a:ext cx="2066925" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4098,7 +4098,7 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2047875" cy="390525"/>
+    <xdr:ext cx="2066925" cy="390525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="102" name="TextBox 101"/>
@@ -4107,7 +4107,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10277475" y="11029950"/>
-          <a:ext cx="2047875" cy="390525"/>
+          <a:ext cx="2066925" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4216,7 +4216,7 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2047875" cy="390525"/>
+    <xdr:ext cx="2057400" cy="390525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="104" name="TextBox 103"/>
@@ -4225,7 +4225,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4791075" y="11410950"/>
-          <a:ext cx="2047875" cy="390525"/>
+          <a:ext cx="2057400" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4332,7 +4332,7 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2047875" cy="390525"/>
+    <xdr:ext cx="2076450" cy="390525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="106" name="TextBox 105"/>
@@ -4341,7 +4341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10277475" y="11410950"/>
-          <a:ext cx="2047875" cy="390525"/>
+          <a:ext cx="2076450" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5780,11 +5780,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2047875" cy="1152526"/>
+    <xdr:ext cx="2057400" cy="1152526"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="122" name="TextBox 121"/>
@@ -5792,8 +5792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7534275" y="25507950"/>
-          <a:ext cx="2047875" cy="1152526"/>
+          <a:off x="7534276" y="25507950"/>
+          <a:ext cx="2057400" cy="1152526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5896,7 +5896,7 @@
       <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2047875" cy="1152526"/>
+    <xdr:ext cx="2076450" cy="1152526"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="123" name="TextBox 122"/>
@@ -5905,7 +5905,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10277475" y="24936450"/>
-          <a:ext cx="2047875" cy="1152526"/>
+          <a:ext cx="2076450" cy="1152526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6030,7 +6030,7 @@
       <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2057400" cy="1133475"/>
+    <xdr:ext cx="2057400" cy="1152525"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="124" name="TextBox 123"/>
@@ -6039,7 +6039,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4791075" y="25888950"/>
-          <a:ext cx="2057400" cy="1133475"/>
+          <a:ext cx="2057400" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6634,8 +6634,8 @@
   </sheetPr>
   <dimension ref="A1:I214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7103,78 +7103,78 @@
         <v>42688</v>
       </c>
       <c r="B62" s="6"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>42689</v>
       </c>
       <c r="B63" s="6"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>42690</v>
       </c>
       <c r="B64" s="6"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>42691</v>
       </c>
       <c r="B65" s="6"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>42692</v>
       </c>
       <c r="B66" s="6"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>42693</v>
       </c>
       <c r="B67" s="6"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
@@ -7194,520 +7194,520 @@
         <v>42695</v>
       </c>
       <c r="B69" s="8"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>42696</v>
       </c>
       <c r="B70" s="8"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>42697</v>
       </c>
       <c r="B71" s="8"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>42698</v>
       </c>
       <c r="B72" s="8"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>42699</v>
       </c>
       <c r="B73" s="8"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>42700</v>
       </c>
       <c r="B74" s="8"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>42701</v>
       </c>
       <c r="B75" s="8"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>42702</v>
       </c>
       <c r="B76" s="8"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>42703</v>
       </c>
       <c r="B77" s="8"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>42704</v>
       </c>
       <c r="B78" s="8"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>42705</v>
       </c>
       <c r="B79" s="8"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>42706</v>
       </c>
       <c r="B80" s="8"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>42707</v>
       </c>
       <c r="B81" s="8"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>42708</v>
       </c>
       <c r="B82" s="8"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>42709</v>
       </c>
       <c r="B83" s="8"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>42710</v>
       </c>
       <c r="B84" s="8"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>42711</v>
       </c>
       <c r="B85" s="8"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>42712</v>
       </c>
       <c r="B86" s="8"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>42713</v>
       </c>
       <c r="B87" s="8"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>42714</v>
       </c>
       <c r="B88" s="8"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>42715</v>
       </c>
       <c r="B89" s="8"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>42716</v>
       </c>
       <c r="B90" s="8"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>42717</v>
       </c>
       <c r="B91" s="8"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>42718</v>
       </c>
       <c r="B92" s="8"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>42719</v>
       </c>
       <c r="B93" s="8"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>42720</v>
       </c>
       <c r="B94" s="8"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>42721</v>
       </c>
       <c r="B95" s="8"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>42722</v>
       </c>
       <c r="B96" s="8"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>42723</v>
       </c>
       <c r="B97" s="8"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>42724</v>
       </c>
       <c r="B98" s="8"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>42725</v>
       </c>
       <c r="B99" s="8"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>42726</v>
       </c>
       <c r="B100" s="8"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>42727</v>
       </c>
       <c r="B101" s="8"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>42728</v>
       </c>
       <c r="B102" s="8"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>42729</v>
       </c>
       <c r="B103" s="8"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>42730</v>
       </c>
       <c r="B104" s="8"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>42731</v>
       </c>
       <c r="B105" s="8"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>42732</v>
       </c>
       <c r="B106" s="8"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>42733</v>
       </c>
       <c r="B107" s="8"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>42734</v>
       </c>
       <c r="B108" s="8"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
@@ -7868,26 +7868,26 @@
       <c r="A138" s="3">
         <v>42764</v>
       </c>
-      <c r="C138" s="17"/>
+      <c r="C138" s="13"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>42765</v>
       </c>
-      <c r="C139" s="17"/>
+      <c r="C139" s="13"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>42766</v>
       </c>
-      <c r="C140" s="17"/>
+      <c r="C140" s="13"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>42767</v>
       </c>
-      <c r="C141" s="17"/>
-      <c r="G141" s="17"/>
+      <c r="C141" s="13"/>
+      <c r="G141" s="13"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
